--- a/ParametricGraph/BenchMultiFunctionM.xlsx
+++ b/ParametricGraph/BenchMultiFunctionM.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A1:S205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -440,7 +440,7 @@
         <v>40401</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:19">
